--- a/AutoServiceAppointments/Output/Data/Programari.xlsx
+++ b/AutoServiceAppointments/Output/Data/Programari.xlsx
@@ -159,6 +159,45 @@
   </x:si>
   <x:si>
     <x:t>&lt;CAOCjmNqEYOcwdAY4RyFESq+B0692N8euALsZU8LvB6Ogoq0COQ@mail.gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:26:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:28:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:28:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:28:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:28:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:28:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:28:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:29:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:29:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:30:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:30:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:30:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026-01-20 02:30:05</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1945,6 +1984,461 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:11">
+      <x:c r="A53" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:11">
+      <x:c r="A54" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:11">
+      <x:c r="A55" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:11">
+      <x:c r="A56" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoServiceAppointments/Output/Data/Programari.xlsx
+++ b/AutoServiceAppointments/Output/Data/Programari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anama\Desktop\RPA-AsistentProgramari_ServiceAuto\RPA_AutoServiceAppointments\AutoServiceAppointments\Output\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69803950-C213-4D49-8AF4-B9CE79894024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4537993B-479F-4947-A5C6-FAB071AF9B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="2130" windowWidth="23805" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="61">
   <si>
     <t>Timestamp</t>
   </si>
@@ -200,13 +200,16 @@
   </si>
   <si>
     <t>"Ștefan Ana-Maria" &lt;ana.maria.stefan03@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>"Ifrim Andrei" &lt;minecraft.asus.123@gmail.com&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,6 +220,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,9 +250,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +474,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2440,7 +2453,13 @@
         <v>37</v>
       </c>
     </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>